--- a/手板报价单_2025-06-11.xlsx
+++ b/手板报价单_2025-06-11.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,53 +28,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
       <color rgb="00343A40"/>
       <sz val="28"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <color rgb="006C757D"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
-      <color rgb="006C757D"/>
-      <sz val="10"/>
+      <color rgb="00343A40"/>
+      <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <color rgb="00343A40"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
       <color rgb="00343A40"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="00343A40"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
       <color rgb="0028A745"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <color rgb="006C757D"/>
       <sz val="10"/>
     </font>
@@ -111,10 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -161,22 +155,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,7 +252,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="381000"/>
@@ -286,7 +277,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>18</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="504825"/>
@@ -311,7 +302,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="504825"/>
@@ -336,7 +327,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>20</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="495300"/>
@@ -361,7 +352,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>15</row>
+      <row>21</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="352425"/>
@@ -386,7 +377,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>16</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="466725" cy="523875"/>
@@ -411,7 +402,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>23</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="447675" cy="523875"/>
@@ -436,7 +427,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>18</row>
+      <row>24</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="447675"/>
@@ -461,7 +452,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="371475"/>
@@ -486,7 +477,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="495300"/>
@@ -511,7 +502,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="381000"/>
@@ -536,7 +527,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>22</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="390525"/>
@@ -561,7 +552,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>23</row>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="466725"/>
@@ -586,7 +577,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>24</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="495300"/>
@@ -611,7 +602,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="523875"/>
@@ -636,7 +627,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>32</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="428625"/>
@@ -661,7 +652,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="504825" cy="514350"/>
@@ -686,7 +677,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>28</row>
+      <row>34</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="523875"/>
@@ -711,7 +702,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="409575" cy="523875"/>
@@ -736,7 +727,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="457200"/>
@@ -761,7 +752,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="409575"/>
@@ -786,7 +777,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>38</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="371475"/>
@@ -811,7 +802,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="161925"/>
@@ -836,7 +827,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="323850"/>
@@ -861,7 +852,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="514350" cy="523875"/>
@@ -886,7 +877,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>42</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="523875"/>
@@ -911,7 +902,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="438150"/>
@@ -936,7 +927,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>38</row>
+      <row>44</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="504825"/>
@@ -961,7 +952,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>45</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="323850"/>
@@ -986,7 +977,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>46</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="523875" cy="409575"/>
@@ -1299,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1298,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -1320,308 +1311,145 @@
     <row r="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>QUOTATION</t>
+          <t>手板报价单</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quote #QT-20250611</t>
+          <t>报价单号: QT-20250611</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Date: June 11, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+          <t>日期: 2025年06月11日</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>FROM</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1">
+          <t>甲方信息 (客户信息)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Hangzhou Yueyi Model Technology Co., Ltd.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1">
+          <t>甲方公司: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Contact: Fu Shiqin</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1">
+          <t>联系人: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Phone: +86 137 7747 9066</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
+          <t>电话: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Address: No.11, Road 1, Dongzhou Industrial Zone, Fuyang District, Hangzhou</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1"/>
-    <row r="11" ht="35" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Part Name</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Surface</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>Unit Price</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="65" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr"/>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>电池仓</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <f>F12*G12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="65" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B13" s="12" t="inlineStr"/>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>电池盖</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E13" s="13" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <f>F13*G13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="65" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr"/>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>前壳</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <f>F14*G14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="65" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="inlineStr"/>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>按键1</t>
-        </is>
-      </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <f>F15*G15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="65" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr"/>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>按键2</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <f>F16*G16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="65" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="inlineStr"/>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>按键3</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <f>F17*G17</f>
-        <v/>
+          <t>邮箱: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>乙方信息 (供应商信息)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>乙方公司: 杭州越依模型科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>联系人: 傅士勤</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>电话: 137 7747 9066</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>地址: 杭州市富阳区东洲工业功能区1号路11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1"/>
+    <row r="17" ht="35" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>零件图片</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>零件名称</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>表面处理</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>材质</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>单价(未税)</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>总价(未税)</t>
+        </is>
       </c>
     </row>
     <row r="18" ht="65" customHeight="1">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr"/>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>按键板</t>
+          <t>电池仓</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
@@ -1648,13 +1476,13 @@
     <row r="19" ht="65" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr"/>
       <c r="C19" s="13" t="inlineStr">
         <is>
-          <t>电源板</t>
+          <t>电池盖</t>
         </is>
       </c>
       <c r="D19" s="13" t="inlineStr">
@@ -1681,13 +1509,13 @@
     <row r="20" ht="65" customHeight="1">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>03</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr"/>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>负极簧片</t>
+          <t>前壳</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
@@ -1714,13 +1542,13 @@
     <row r="21" ht="65" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr"/>
       <c r="C21" s="13" t="inlineStr">
         <is>
-          <t>负极接线片</t>
+          <t>按键1</t>
         </is>
       </c>
       <c r="D21" s="13" t="inlineStr">
@@ -1747,13 +1575,13 @@
     <row r="22" ht="65" customHeight="1">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr"/>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>接口板</t>
+          <t>按键2</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
@@ -1780,13 +1608,13 @@
     <row r="23" ht="65" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr"/>
       <c r="C23" s="13" t="inlineStr">
         <is>
-          <t>激光装饰片</t>
+          <t>按键3</t>
         </is>
       </c>
       <c r="D23" s="13" t="inlineStr">
@@ -1813,13 +1641,13 @@
     <row r="24" ht="65" customHeight="1">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr"/>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>镜头</t>
+          <t>按键板</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
@@ -1846,13 +1674,13 @@
     <row r="25" ht="65" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>08</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr"/>
       <c r="C25" s="13" t="inlineStr">
         <is>
-          <t>镜头转接件1</t>
+          <t>电源板</t>
         </is>
       </c>
       <c r="D25" s="13" t="inlineStr">
@@ -1879,13 +1707,13 @@
     <row r="26" ht="65" customHeight="1">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>09</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr"/>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>镜头转接件2</t>
+          <t>负极簧片</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
@@ -1912,13 +1740,13 @@
     <row r="27" ht="65" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr"/>
       <c r="C27" s="13" t="inlineStr">
         <is>
-          <t>镜头转接件3</t>
+          <t>负极接线片</t>
         </is>
       </c>
       <c r="D27" s="13" t="inlineStr">
@@ -1945,13 +1773,13 @@
     <row r="28" ht="65" customHeight="1">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr"/>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>机芯支架</t>
+          <t>接口板</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -1978,13 +1806,13 @@
     <row r="29" ht="65" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr"/>
       <c r="C29" s="13" t="inlineStr">
         <is>
-          <t>散热板</t>
+          <t>激光装饰片</t>
         </is>
       </c>
       <c r="D29" s="13" t="inlineStr">
@@ -2011,13 +1839,13 @@
     <row r="30" ht="65" customHeight="1">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr"/>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>手柄</t>
+          <t>镜头</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
@@ -2044,13 +1872,13 @@
     <row r="31" ht="65" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr"/>
       <c r="C31" s="13" t="inlineStr">
         <is>
-          <t>探测器板</t>
+          <t>镜头转接件1</t>
         </is>
       </c>
       <c r="D31" s="13" t="inlineStr">
@@ -2077,13 +1905,13 @@
     <row r="32" ht="65" customHeight="1">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr"/>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>显示屏</t>
+          <t>镜头转接件2</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
@@ -2110,13 +1938,13 @@
     <row r="33" ht="65" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr"/>
       <c r="C33" s="13" t="inlineStr">
         <is>
-          <t>显示屏后壳</t>
+          <t>镜头转接件3</t>
         </is>
       </c>
       <c r="D33" s="13" t="inlineStr">
@@ -2143,13 +1971,13 @@
     <row r="34" ht="65" customHeight="1">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B34" s="7" t="inlineStr"/>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>右饰片</t>
+          <t>机芯支架</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
@@ -2176,13 +2004,13 @@
     <row r="35" ht="65" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr"/>
       <c r="C35" s="13" t="inlineStr">
         <is>
-          <t>左饰片</t>
+          <t>散热板</t>
         </is>
       </c>
       <c r="D35" s="13" t="inlineStr">
@@ -2209,13 +2037,13 @@
     <row r="36" ht="65" customHeight="1">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B36" s="7" t="inlineStr"/>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>装饰片1</t>
+          <t>手柄</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -2242,13 +2070,13 @@
     <row r="37" ht="65" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr"/>
       <c r="C37" s="13" t="inlineStr">
         <is>
-          <t>装饰片2</t>
+          <t>探测器板</t>
         </is>
       </c>
       <c r="D37" s="13" t="inlineStr">
@@ -2275,13 +2103,13 @@
     <row r="38" ht="65" customHeight="1">
       <c r="A38" s="7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B38" s="7" t="inlineStr"/>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>转接座</t>
+          <t>显示屏</t>
         </is>
       </c>
       <c r="D38" s="8" t="inlineStr">
@@ -2308,13 +2136,13 @@
     <row r="39" ht="65" customHeight="1">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr"/>
       <c r="C39" s="13" t="inlineStr">
         <is>
-          <t>转轴座</t>
+          <t>显示屏后壳</t>
         </is>
       </c>
       <c r="D39" s="13" t="inlineStr">
@@ -2341,13 +2169,13 @@
     <row r="40" ht="65" customHeight="1">
       <c r="A40" s="7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B40" s="7" t="inlineStr"/>
       <c r="C40" s="8" t="inlineStr">
         <is>
-          <t>主板</t>
+          <t>右饰片</t>
         </is>
       </c>
       <c r="D40" s="8" t="inlineStr">
@@ -2374,13 +2202,13 @@
     <row r="41" ht="65" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr"/>
       <c r="C41" s="13" t="inlineStr">
         <is>
-          <t>主壳体</t>
+          <t>左饰片</t>
         </is>
       </c>
       <c r="D41" s="13" t="inlineStr">
@@ -2404,108 +2232,311 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="35" customHeight="1">
-      <c r="A43" s="17" t="inlineStr">
-        <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="H43" s="18">
-        <f>SUM(H12:H41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="25" customHeight="1">
-      <c r="A46" s="19" t="inlineStr">
-        <is>
-          <t>TERMS &amp; CONDITIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1">
-      <c r="A47" s="20" t="inlineStr">
-        <is>
-          <t>• Payment Terms: Net 30 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1">
-      <c r="A48" s="20" t="inlineStr">
-        <is>
-          <t>• Delivery: 7 days after confirmation</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="20" customHeight="1">
-      <c r="A49" s="20" t="inlineStr">
-        <is>
-          <t>• Quality: According to 2D/3D drawings and specifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="20" t="inlineStr">
-        <is>
-          <t>• This quote is valid for Hangzhou Hikvision and affiliated companies</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="20" t="inlineStr">
-        <is>
-          <t>• Prices are subject to change without notice</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="20" t="inlineStr">
-        <is>
-          <t>• All prices are in Chinese Yuan (¥)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="25" customHeight="1">
-      <c r="F55" s="21" t="inlineStr">
-        <is>
-          <t>Authorized Signature</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" s="22" t="inlineStr">
+    <row r="42" ht="65" customHeight="1">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="inlineStr"/>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>装饰片1</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <f>F42*G42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="65" customHeight="1">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr"/>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>装饰片2</t>
+        </is>
+      </c>
+      <c r="D43" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <f>F43*G43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="65" customHeight="1">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="inlineStr"/>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>转接座</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <f>F44*G44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="65" customHeight="1">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr"/>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>转轴座</t>
+        </is>
+      </c>
+      <c r="D45" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <f>F45*G45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="65" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="inlineStr"/>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>主板</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f>F46*G46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="65" customHeight="1">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr"/>
+      <c r="C47" s="13" t="inlineStr">
+        <is>
+          <t>主壳体</t>
+        </is>
+      </c>
+      <c r="D47" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E47" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <f>F47*G47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="35" customHeight="1">
+      <c r="A49" s="17" t="inlineStr">
+        <is>
+          <t>小计</t>
+        </is>
+      </c>
+      <c r="H49" s="18">
+        <f>SUM(H18:H47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="25" customHeight="1">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>条款说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>• 付款方式: 月结30天</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>• 交货期: 确认后7个工作日内完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="19" t="inlineStr">
+        <is>
+          <t>• 验收标准: 依据甲方2D、3D图纸及说明文档进行验收</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="19" t="inlineStr">
+        <is>
+          <t>• 本报价单适用于杭州海康威视科技有限公司及其子公司、关联公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="19" t="inlineStr">
+        <is>
+          <t>• 报价有效期: 30天</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="19" t="inlineStr">
+        <is>
+          <t>• 所有价格均为人民币不含税价格</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="25" customHeight="1">
+      <c r="F61" s="20" t="inlineStr">
+        <is>
+          <t>乙方签名确认</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="21" t="inlineStr">
         <is>
           <t>________________________</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" s="22" t="inlineStr">
-        <is>
-          <t>June 11, 2025</t>
+    <row r="64">
+      <c r="F64" s="21" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F64:H64"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A8:H8"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A52:H52"/>
-    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A58:H58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/手板报价单_2025-06-11.xlsx
+++ b/手板报价单_2025-06-11.xlsx
@@ -2409,7 +2409,7 @@
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>交货期: 确认后 (     ) 个工作日内完成</t>
+          <t>交货期: 确认后 ____________ 个工作日内完成</t>
         </is>
       </c>
     </row>

--- a/手板报价单_2025-06-11.xlsx
+++ b/手板报价单_2025-06-11.xlsx
@@ -2409,7 +2409,7 @@
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>交货期: 确认后 ____________ 个工作日内完成</t>
+          <t>交货期: 确认后 (     ) 个工作日内完成</t>
         </is>
       </c>
     </row>

--- a/手板报价单_2025-06-11.xlsx
+++ b/手板报价单_2025-06-11.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <name val="Calibri"/>
@@ -26,60 +28,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
-      <color rgb="001A1A1A"/>
-      <sz val="24"/>
+      <color rgb="00343A40"/>
+      <sz val="28"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="001A1A1A"/>
+      <name val="Microsoft YaHei"/>
+      <color rgb="006C757D"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <color rgb="00666666"/>
-      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <b val="1"/>
+      <color rgb="00343A40"/>
+      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="001A1A1A"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="001A1A1A"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="001A1A1A"/>
+      <name val="Microsoft YaHei"/>
+      <color rgb="00343A40"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Microsoft YaHei"/>
       <b val="1"/>
-      <color rgb="000066CC"/>
+      <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <color rgb="00666666"/>
-      <sz val="9"/>
+      <name val="Microsoft YaHei"/>
+      <b val="1"/>
+      <color rgb="00343A40"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Microsoft YaHei"/>
+      <b val="1"/>
+      <color rgb="0028A745"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Microsoft YaHei"/>
+      <color rgb="006C757D"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E86AB"/>
+        <bgColor rgb="002E86AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F9FA"/>
+        <bgColor rgb="00F8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,21 +101,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="00666666"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="00666666"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -109,35 +113,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -221,10 +252,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -246,10 +277,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="504825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -271,10 +302,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="504825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -296,10 +327,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="495300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -321,10 +352,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="285750"/>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="352425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -346,10 +377,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="381000" cy="428625"/>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -371,10 +402,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="419100"/>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="447675" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -396,10 +427,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="361950"/>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="447675"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -421,10 +452,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="371475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -446,10 +477,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="495300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -471,10 +502,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -496,10 +527,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="390525"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -521,10 +552,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="381000"/>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="466725"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -546,10 +577,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="495300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -571,10 +602,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -596,10 +627,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="428625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -621,10 +652,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="409575" cy="428625"/>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="504825" cy="514350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -646,10 +677,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>32</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -671,10 +702,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>33</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="333375" cy="428625"/>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -696,10 +727,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>34</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="371475"/>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="457200"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -721,10 +752,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="409575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -746,10 +777,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="371475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -771,10 +802,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="133350"/>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="161925"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -796,10 +827,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>38</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="257175"/>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="323850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -821,10 +852,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="428625"/>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="514350" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -846,10 +877,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -871,10 +902,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>41</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="438150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -896,10 +927,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>42</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="504825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -921,10 +952,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>43</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="266700"/>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="323850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -946,10 +977,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>44</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="523875" cy="409575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="30" name="Image 30" descr="Picture"/>
@@ -1259,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,1210 +1298,1247 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1">
+    <row r="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>手板报价单</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1"/>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>甲方信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>公司 ______________________________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>联系人 ____________________________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>电话 ______________________________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>邮箱 ______________________________________</t>
+          <t>报价单号: QT-20250611</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>日期: 2025年06月11日</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>甲方信息 (客户信息)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>甲方公司: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>联系人: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>电话: ___________________________</t>
         </is>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>乙方信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>杭州越依模型科技有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>邮箱: ___________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>乙方信息 (供应商信息)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>乙方公司: 杭州越依模型科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>联系人: 傅士勤</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>电话: 137 7747 9066</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>地址: 杭州市富阳区东洲工业功能区1号路11号</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="25" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="16" ht="25" customHeight="1"/>
+    <row r="17" ht="35" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>零件图片</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>零件名称</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>表面处理</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>材质</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t>总价</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr"/>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>单价(未税)</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>总价(未税)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="65" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr"/>
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>电池仓</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <f>F16*G16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr"/>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f>F18*G18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="65" customHeight="1">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr"/>
+      <c r="C19" s="13" t="inlineStr">
         <is>
           <t>电池盖</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f>F17*G17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr"/>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <f>F19*G19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="65" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr"/>
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>前壳</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <f>F18*G18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr"/>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f>F20*G20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="65" customHeight="1">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="inlineStr"/>
+      <c r="C21" s="13" t="inlineStr">
         <is>
           <t>按键1</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <f>F19*G19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr"/>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <f>F21*G21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="65" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr"/>
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>按键2</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <f>F20*G20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr"/>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <f>F22*G22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="65" customHeight="1">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr"/>
+      <c r="C23" s="13" t="inlineStr">
         <is>
           <t>按键3</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <f>F21*G21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr"/>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <f>F23*G23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="65" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr"/>
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>按键板</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <f>F22*G22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr"/>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f>F24*G24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="65" customHeight="1">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr"/>
+      <c r="C25" s="13" t="inlineStr">
         <is>
           <t>电源板</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <f>F23*G23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr"/>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="D25" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <f>F25*G25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="65" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>负极簧片</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <f>F24*G24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="50" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f>F26*G26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="65" customHeight="1">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr"/>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr"/>
+      <c r="C27" s="13" t="inlineStr">
         <is>
           <t>负极接线片</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <f>F25*G25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="50" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="D27" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f>F27*G27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="65" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr"/>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr"/>
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>接口板</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <f>F26*G26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="50" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <f>F28*G28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="65" customHeight="1">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr"/>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr"/>
+      <c r="C29" s="13" t="inlineStr">
         <is>
           <t>激光装饰片</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <f>F27*G27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="50" customHeight="1">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="D29" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f>F29*G29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="65" customHeight="1">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr"/>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr"/>
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>镜头</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <f>F28*G28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="50" customHeight="1">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <f>F30*G30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="65" customHeight="1">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr"/>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr"/>
+      <c r="C31" s="13" t="inlineStr">
         <is>
           <t>镜头转接件1</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <f>F29*G29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="50" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="D31" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <f>F31*G31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="65" customHeight="1">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr"/>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr"/>
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>镜头转接件2</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <f>F30*G30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="50" customHeight="1">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <f>F32*G32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="65" customHeight="1">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr"/>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr"/>
+      <c r="C33" s="13" t="inlineStr">
         <is>
           <t>镜头转接件3</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <f>F31*G31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="50" customHeight="1">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="D33" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <f>F33*G33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="65" customHeight="1">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr"/>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr"/>
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>机芯支架</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <f>F32*G32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="50" customHeight="1">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <f>F34*G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="65" customHeight="1">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr"/>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr"/>
+      <c r="C35" s="13" t="inlineStr">
         <is>
           <t>散热板</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <f>F33*G33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="50" customHeight="1">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="D35" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f>F35*G35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="65" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr"/>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr"/>
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>手柄</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <f>F34*G34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="50" customHeight="1">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f>F36*G36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="65" customHeight="1">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr"/>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr"/>
+      <c r="C37" s="13" t="inlineStr">
         <is>
           <t>探测器板</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <f>F35*G35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="50" customHeight="1">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="D37" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <f>F37*G37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="65" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr"/>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="B38" s="7" t="inlineStr"/>
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>显示屏</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <f>F36*G36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="50" customHeight="1">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <f>F38*G38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="65" customHeight="1">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr"/>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr"/>
+      <c r="C39" s="13" t="inlineStr">
         <is>
           <t>显示屏后壳</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <f>F37*G37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="50" customHeight="1">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="D39" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <f>F39*G39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="65" customHeight="1">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr"/>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr"/>
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>右饰片</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <f>F38*G38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" ht="50" customHeight="1">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <f>F40*G40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="65" customHeight="1">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr"/>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr"/>
+      <c r="C41" s="13" t="inlineStr">
         <is>
           <t>左饰片</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <f>F39*G39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" ht="50" customHeight="1">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="D41" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <f>F41*G41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="65" customHeight="1">
+      <c r="A42" s="7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr"/>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="B42" s="7" t="inlineStr"/>
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>装饰片1</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <f>F40*G40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" ht="50" customHeight="1">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <f>F42*G42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="65" customHeight="1">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr"/>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr"/>
+      <c r="C43" s="13" t="inlineStr">
         <is>
           <t>装饰片2</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <f>F41*G41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="50" customHeight="1">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="D43" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <f>F43*G43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="65" customHeight="1">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr"/>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="B44" s="7" t="inlineStr"/>
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>转接座</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <f>F42*G42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="50" customHeight="1">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <f>F44*G44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="65" customHeight="1">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr"/>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr"/>
+      <c r="C45" s="13" t="inlineStr">
         <is>
           <t>转轴座</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <f>F43*G43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" ht="50" customHeight="1">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="D45" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <f>F45*G45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="65" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr"/>
-      <c r="C44" s="6" t="inlineStr">
+      <c r="B46" s="7" t="inlineStr"/>
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>主板</t>
         </is>
       </c>
-      <c r="D44" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <f>F44*G44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" ht="50" customHeight="1">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f>F46*G46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="65" customHeight="1">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr"/>
-      <c r="C45" s="6" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr"/>
+      <c r="C47" s="13" t="inlineStr">
         <is>
           <t>主壳体</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <f>F45*G45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="25" customHeight="1">
-      <c r="A47" s="9" t="inlineStr">
+      <c r="D47" s="13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E47" s="13" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <f>F47*G47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="35" customHeight="1">
+      <c r="A49" s="17" t="inlineStr">
         <is>
           <t>小计</t>
         </is>
       </c>
-      <c r="H47" s="10">
-        <f>SUM(H16:H45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>付款方式: 月结30天</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>交货期: 确认后 (     ) 个工作日内完成</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>验收标准: 依据甲方2D、3D图纸及说明文档进行验收</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>本报价单适用于杭州海康威视科技有限公司及其子公司、关联公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>报价有效期: 30天</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>所有价格均为人民币不含税价格</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" s="12" t="inlineStr">
-        <is>
-          <t>乙方确认 ___________________</t>
+      <c r="H49" s="18">
+        <f>SUM(H18:H47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="25" customHeight="1">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>条款说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>• 付款方式: 月结30天</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>• 交货期: 确认后7个工作日内完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="19" t="inlineStr">
+        <is>
+          <t>• 验收标准: 依据甲方2D、3D图纸及说明文档进行验收</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="19" t="inlineStr">
+        <is>
+          <t>• 本报价单适用于杭州海康威视科技有限公司及其子公司、关联公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="19" t="inlineStr">
+        <is>
+          <t>• 报价有效期: 30天</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="19" t="inlineStr">
+        <is>
+          <t>• 所有价格均为人民币不含税价格</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="25" customHeight="1">
+      <c r="F61" s="20" t="inlineStr">
+        <is>
+          <t>乙方签名确认</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="21" t="inlineStr">
+        <is>
+          <t>________________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="21" t="inlineStr">
+        <is>
+          <t>2025年06月11日</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A54:H54"/>
-    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F64:H64"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="F63:H63"/>
     <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A58:H58"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>